--- a/Results/NEW_periods/Post Breeding/Male/meta_analysis_treatment_vs_control.xlsx
+++ b/Results/NEW_periods/Post Breeding/Male/meta_analysis_treatment_vs_control.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,13 +394,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.5002105807150543</v>
+        <v>0.5002105923365068</v>
       </c>
       <c r="C3">
-        <v>0.7786592039158803</v>
+        <v>0.7786591166611616</v>
       </c>
       <c r="D3">
-        <v>1.157264873500193</v>
+        <v>1.157264633490854</v>
       </c>
     </row>
     <row r="4">
@@ -410,13 +410,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.1205577864833053</v>
+        <v>0.1205578087620536</v>
       </c>
       <c r="C4">
-        <v>0.4554315263499056</v>
+        <v>0.455431433919275</v>
       </c>
       <c r="D4">
-        <v>1.008735021517643</v>
+        <v>1.008734676105219</v>
       </c>
     </row>
     <row r="5">
@@ -426,13 +426,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.3582556296297917</v>
+        <v>0.3582556579487085</v>
       </c>
       <c r="C5">
-        <v>0.6963169004392392</v>
+        <v>0.6963168204826793</v>
       </c>
       <c r="D5">
-        <v>1.036296282977649</v>
+        <v>1.036296091716069</v>
       </c>
     </row>
     <row r="6">
@@ -449,13 +449,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>17.10110823581771</v>
+        <v>17.10110608132888</v>
       </c>
       <c r="C7">
-        <v>25.87636380199308</v>
+        <v>25.87636470345233</v>
       </c>
       <c r="D7">
-        <v>37.61824511698842</v>
+        <v>37.61825124372285</v>
       </c>
     </row>
     <row r="8">
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.1145595350194087</v>
+        <v>0.114559495474643</v>
       </c>
       <c r="C8">
-        <v>0.4115694006105621</v>
+        <v>0.4115696663083406</v>
       </c>
       <c r="D8">
-        <v>0.8950188252402923</v>
+        <v>0.8950197316576815</v>
       </c>
     </row>
     <row r="9">
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.3486282715721684</v>
+        <v>0.3486282232034319</v>
       </c>
       <c r="C9">
-        <v>0.6607976971544086</v>
+        <v>0.6607979328218138</v>
       </c>
       <c r="D9">
-        <v>0.974457868315481</v>
+        <v>0.9744583947394193</v>
       </c>
     </row>
     <row r="10">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="B11">
-        <v>8.056418034325979</v>
+        <v>8.056419274879348</v>
       </c>
       <c r="C11">
-        <v>10.90026701701571</v>
+        <v>10.90026959821771</v>
       </c>
       <c r="D11">
-        <v>14.40380076663371</v>
+        <v>14.40380497647034</v>
       </c>
     </row>
     <row r="12">
@@ -520,13 +520,13 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.05255909224489542</v>
+        <v>0.05255909735591642</v>
       </c>
       <c r="C12">
-        <v>0.202722873823087</v>
+        <v>0.2027227971071784</v>
       </c>
       <c r="D12">
-        <v>0.4523597681176309</v>
+        <v>0.4523595204742347</v>
       </c>
     </row>
     <row r="13">
@@ -536,13 +536,68 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.2367176341332853</v>
+        <v>0.2367176417544625</v>
       </c>
       <c r="C13">
-        <v>0.4648984099409481</v>
+        <v>0.4648983143391469</v>
       </c>
       <c r="D13">
-        <v>0.6944622932035079</v>
+        <v>0.6944620917049884</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Speed meta analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mean (km/day)</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>2.97132081279445</v>
+      </c>
+      <c r="C15">
+        <v>3.753048655222063</v>
+      </c>
+      <c r="D15">
+        <v>4.676696035531339</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CoV² (RVAR)</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>0.03301988768423263</v>
+      </c>
+      <c r="C16">
+        <v>0.1193087915423664</v>
+      </c>
+      <c r="D16">
+        <v>0.2600045075943561</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CoV  (RSTD)</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>0.187205985989238</v>
+      </c>
+      <c r="C17">
+        <v>0.355850974056521</v>
+      </c>
+      <c r="D17">
+        <v>0.5253181112768256</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -594,13 +649,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.5178415668348875</v>
+        <v>0.5178416068095788</v>
       </c>
       <c r="C3">
-        <v>0.9296266679712436</v>
+        <v>0.9296259217781964</v>
       </c>
       <c r="D3">
-        <v>1.545116653405698</v>
+        <v>1.545114629883028</v>
       </c>
     </row>
     <row r="4">
@@ -610,13 +665,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.07253882305851793</v>
+        <v>0.07253888170390142</v>
       </c>
       <c r="C4">
-        <v>0.4774612491108778</v>
+        <v>0.4774612343813659</v>
       </c>
       <c r="D4">
-        <v>1.255915045168531</v>
+        <v>1.25591472488125</v>
       </c>
     </row>
     <row r="5">
@@ -626,13 +681,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.2833809445110739</v>
+        <v>0.2833810506161001</v>
       </c>
       <c r="C5">
-        <v>0.7270335558836408</v>
+        <v>0.7270335229971665</v>
       </c>
       <c r="D5">
-        <v>1.179140408260286</v>
+        <v>1.17914022275735</v>
       </c>
     </row>
     <row r="6">
@@ -649,13 +704,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>22.84313708753089</v>
+        <v>22.84308894697649</v>
       </c>
       <c r="C7">
-        <v>35.342832130552</v>
+        <v>35.34294070428853</v>
       </c>
       <c r="D7">
-        <v>52.31220871194648</v>
+        <v>52.31257022832333</v>
       </c>
     </row>
     <row r="8">
@@ -665,13 +720,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.04750281836667519</v>
+        <v>0.04750194107559804</v>
       </c>
       <c r="C8">
-        <v>0.2723702251403893</v>
+        <v>0.2723737122129692</v>
       </c>
       <c r="D8">
-        <v>0.689630169233846</v>
+        <v>0.6896451688430465</v>
       </c>
     </row>
     <row r="9">
@@ -681,13 +736,13 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.2282007046555306</v>
+        <v>0.2281988506563955</v>
       </c>
       <c r="C9">
-        <v>0.5464332367301317</v>
+        <v>0.5464373410218864</v>
       </c>
       <c r="D9">
-        <v>0.869491655881161</v>
+        <v>0.8695020765546931</v>
       </c>
     </row>
     <row r="10">
@@ -747,6 +802,61 @@
         <is>
           <t>Inf</t>
         </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Speed meta analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mean (km/day)</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>3.5279196661446</v>
+      </c>
+      <c r="C15">
+        <v>4.237933798281795</v>
+      </c>
+      <c r="D15">
+        <v>5.045164642902208</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CoV² (RVAR)</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>0.005267892284647601</v>
+      </c>
+      <c r="C16">
+        <v>0.03804643118953414</v>
+      </c>
+      <c r="D16">
+        <v>0.1025332284868073</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CoV  (RSTD)</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>0.07661869813981735</v>
+      </c>
+      <c r="C17">
+        <v>0.2059080321739013</v>
+      </c>
+      <c r="D17">
+        <v>0.3380248599474686</v>
       </c>
     </row>
   </sheetData>
